--- a/totaalstand_TEALT.xlsx
+++ b/totaalstand_TEALT.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,10 +461,25 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>Totaal Score</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Aantal Darts</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>3-Darts Gemiddelde</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>Totaal</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Winnaar</t>
         </is>
@@ -480,57 +495,75 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>7</v>
+        <v>9517</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>466</v>
+      </c>
+      <c r="H2" t="n">
+        <v>61.27</v>
+      </c>
+      <c r="I2" t="n">
+        <v>24</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Patrick La Gordt Dillié</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>15</v>
+      </c>
+      <c r="D3" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Robin Hood</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>7</v>
+        <v>11764</v>
       </c>
       <c r="G3" t="n">
+        <v>553</v>
+      </c>
+      <c r="H3" t="n">
+        <v>63.82</v>
+      </c>
+      <c r="I3" t="n">
+        <v>16</v>
+      </c>
+      <c r="J3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>luca Simon</t>
+          <t>Jente Stienstra</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -539,23 +572,32 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>7</v>
+        <v>7891</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>438</v>
+      </c>
+      <c r="H4" t="n">
+        <v>54.05</v>
+      </c>
+      <c r="I4" t="n">
+        <v>11</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Mark Riches</t>
+          <t>Robin Hood</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -564,59 +606,86 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6</v>
+        <v>3733</v>
       </c>
       <c r="G5" t="n">
+        <v>214</v>
+      </c>
+      <c r="H5" t="n">
+        <v>52.33</v>
+      </c>
+      <c r="I5" t="n">
+        <v>11</v>
+      </c>
+      <c r="J5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Oscar Ebbeling</t>
+          <t>Chris C</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>6</v>
+        <v>6422</v>
       </c>
       <c r="G6" t="n">
+        <v>314</v>
+      </c>
+      <c r="H6" t="n">
+        <v>61.36</v>
+      </c>
+      <c r="I6" t="n">
+        <v>11</v>
+      </c>
+      <c r="J6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Ayden Veenstra</t>
+          <t>Mark Riches</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>6</v>
+        <v>6838</v>
       </c>
       <c r="G7" t="n">
+        <v>375</v>
+      </c>
+      <c r="H7" t="n">
+        <v>54.7</v>
+      </c>
+      <c r="I7" t="n">
+        <v>10</v>
+      </c>
+      <c r="J7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -626,37 +695,46 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Chris Connon</t>
+          <t>luca Simon</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>5</v>
+        <v>5455</v>
       </c>
       <c r="G8" t="n">
+        <v>294</v>
+      </c>
+      <c r="H8" t="n">
+        <v>55.66</v>
+      </c>
+      <c r="I8" t="n">
+        <v>9</v>
+      </c>
+      <c r="J8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Powy 🏴󠁧󠁢󠁷󠁬󠁳󠁿</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Dávid Márfi</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>5</v>
-      </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
@@ -664,48 +742,66 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>5</v>
+        <v>3013</v>
       </c>
       <c r="G9" t="n">
+        <v>146</v>
+      </c>
+      <c r="H9" t="n">
+        <v>61.91</v>
+      </c>
+      <c r="I9" t="n">
+        <v>7</v>
+      </c>
+      <c r="J9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Oscar Ebbeling</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>6</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>3800</v>
+      </c>
+      <c r="G10" t="n">
+        <v>237</v>
+      </c>
+      <c r="H10" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="I10" t="n">
         <v>7</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Gijs Tromp</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>5</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>5</v>
-      </c>
-      <c r="G10" t="n">
+      <c r="J10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Jente Stienstra</t>
+          <t>Gijs Tromp</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -714,19 +810,28 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>5</v>
+        <v>4553</v>
       </c>
       <c r="G11" t="n">
+        <v>232</v>
+      </c>
+      <c r="H11" t="n">
+        <v>58.88</v>
+      </c>
+      <c r="I11" t="n">
+        <v>6</v>
+      </c>
+      <c r="J11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Matthew Cooke</t>
+          <t>Dávid Márfi</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -739,19 +844,28 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
+        <v>2820</v>
+      </c>
+      <c r="G12" t="n">
+        <v>186</v>
+      </c>
+      <c r="H12" t="n">
+        <v>45.48</v>
+      </c>
+      <c r="I12" t="n">
         <v>5</v>
       </c>
-      <c r="G12" t="n">
+      <c r="J12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Pascal Ritter</t>
+          <t>Matthew Cooke</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -764,19 +878,28 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
+        <v>3112</v>
+      </c>
+      <c r="G13" t="n">
+        <v>231</v>
+      </c>
+      <c r="H13" t="n">
+        <v>40.42</v>
+      </c>
+      <c r="I13" t="n">
         <v>5</v>
       </c>
-      <c r="G13" t="n">
+      <c r="J13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Patrick La Gordt Dillié</t>
+          <t>Pascal Ritter</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -789,40 +912,58 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
+        <v>1865</v>
+      </c>
+      <c r="G14" t="n">
+        <v>116</v>
+      </c>
+      <c r="H14" t="n">
+        <v>48.23</v>
+      </c>
+      <c r="I14" t="n">
         <v>5</v>
       </c>
-      <c r="G14" t="n">
+      <c r="J14" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Powy 🏴󠁧󠁢󠁷󠁬󠁳󠁿</t>
+          <t>Ayden Veenstra</t>
         </is>
       </c>
       <c r="C15" t="n">
+        <v>4</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" t="n">
+        <v>3423</v>
+      </c>
+      <c r="G15" t="n">
+        <v>176</v>
+      </c>
+      <c r="H15" t="n">
+        <v>58.35</v>
+      </c>
+      <c r="I15" t="n">
         <v>5</v>
       </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>5</v>
-      </c>
-      <c r="G15" t="n">
+      <c r="J15" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -839,9 +980,18 @@
         <v>1</v>
       </c>
       <c r="F16" t="n">
+        <v>2261</v>
+      </c>
+      <c r="G16" t="n">
+        <v>130</v>
+      </c>
+      <c r="H16" t="n">
+        <v>52.18</v>
+      </c>
+      <c r="I16" t="n">
         <v>5</v>
       </c>
-      <c r="G16" t="n">
+      <c r="J16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -864,9 +1014,18 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
+        <v>3297</v>
+      </c>
+      <c r="G17" t="n">
+        <v>219</v>
+      </c>
+      <c r="H17" t="n">
+        <v>45.16</v>
+      </c>
+      <c r="I17" t="n">
         <v>4</v>
       </c>
-      <c r="G17" t="n">
+      <c r="J17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -889,9 +1048,18 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
+        <v>1710</v>
+      </c>
+      <c r="G18" t="n">
+        <v>102</v>
+      </c>
+      <c r="H18" t="n">
+        <v>50.29</v>
+      </c>
+      <c r="I18" t="n">
         <v>4</v>
       </c>
-      <c r="G18" t="n">
+      <c r="J18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -914,9 +1082,18 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
+        <v>1420</v>
+      </c>
+      <c r="G19" t="n">
+        <v>104</v>
+      </c>
+      <c r="H19" t="n">
+        <v>40.96</v>
+      </c>
+      <c r="I19" t="n">
         <v>3</v>
       </c>
-      <c r="G19" t="n">
+      <c r="J19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -939,9 +1116,18 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
+        <v>1494</v>
+      </c>
+      <c r="G20" t="n">
+        <v>112</v>
+      </c>
+      <c r="H20" t="n">
+        <v>40.02</v>
+      </c>
+      <c r="I20" t="n">
         <v>3</v>
       </c>
-      <c r="G20" t="n">
+      <c r="J20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -964,9 +1150,18 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>2</v>
+        <v>1778</v>
       </c>
       <c r="G21" t="n">
+        <v>109</v>
+      </c>
+      <c r="H21" t="n">
+        <v>48.94</v>
+      </c>
+      <c r="I21" t="n">
+        <v>2</v>
+      </c>
+      <c r="J21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -989,9 +1184,18 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>2</v>
+        <v>2238</v>
       </c>
       <c r="G22" t="n">
+        <v>120</v>
+      </c>
+      <c r="H22" t="n">
+        <v>55.95</v>
+      </c>
+      <c r="I22" t="n">
+        <v>2</v>
+      </c>
+      <c r="J22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1014,9 +1218,16 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="n">
+        <v>2</v>
+      </c>
+      <c r="J23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1039,9 +1250,18 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>2</v>
+        <v>1765</v>
       </c>
       <c r="G24" t="n">
+        <v>121</v>
+      </c>
+      <c r="H24" t="n">
+        <v>43.76</v>
+      </c>
+      <c r="I24" t="n">
+        <v>2</v>
+      </c>
+      <c r="J24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1064,9 +1284,18 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>2</v>
+        <v>822</v>
       </c>
       <c r="G25" t="n">
+        <v>54</v>
+      </c>
+      <c r="H25" t="n">
+        <v>45.67</v>
+      </c>
+      <c r="I25" t="n">
+        <v>2</v>
+      </c>
+      <c r="J25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1089,9 +1318,18 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>2</v>
+        <v>1721</v>
       </c>
       <c r="G26" t="n">
+        <v>106</v>
+      </c>
+      <c r="H26" t="n">
+        <v>48.71</v>
+      </c>
+      <c r="I26" t="n">
+        <v>2</v>
+      </c>
+      <c r="J26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1114,9 +1352,18 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>2</v>
+        <v>882</v>
       </c>
       <c r="G27" t="n">
+        <v>54</v>
+      </c>
+      <c r="H27" t="n">
+        <v>49</v>
+      </c>
+      <c r="I27" t="n">
+        <v>2</v>
+      </c>
+      <c r="J27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1139,9 +1386,18 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>2</v>
+        <v>423</v>
       </c>
       <c r="G28" t="n">
+        <v>27</v>
+      </c>
+      <c r="H28" t="n">
+        <v>47</v>
+      </c>
+      <c r="I28" t="n">
+        <v>2</v>
+      </c>
+      <c r="J28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1164,9 +1420,18 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>2</v>
+        <v>944</v>
       </c>
       <c r="G29" t="n">
+        <v>57</v>
+      </c>
+      <c r="H29" t="n">
+        <v>49.68</v>
+      </c>
+      <c r="I29" t="n">
+        <v>2</v>
+      </c>
+      <c r="J29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1189,9 +1454,16 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="n">
+        <v>2</v>
+      </c>
+      <c r="J30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1214,9 +1486,18 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>2</v>
+        <v>978</v>
       </c>
       <c r="G31" t="n">
+        <v>75</v>
+      </c>
+      <c r="H31" t="n">
+        <v>39.12</v>
+      </c>
+      <c r="I31" t="n">
+        <v>2</v>
+      </c>
+      <c r="J31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1239,9 +1520,18 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>2</v>
+        <v>2457</v>
       </c>
       <c r="G32" t="n">
+        <v>124</v>
+      </c>
+      <c r="H32" t="n">
+        <v>59.44</v>
+      </c>
+      <c r="I32" t="n">
+        <v>2</v>
+      </c>
+      <c r="J32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1264,9 +1554,18 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>2</v>
+        <v>862</v>
       </c>
       <c r="G33" t="n">
+        <v>63</v>
+      </c>
+      <c r="H33" t="n">
+        <v>41.05</v>
+      </c>
+      <c r="I33" t="n">
+        <v>2</v>
+      </c>
+      <c r="J33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1289,9 +1588,18 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
+        <v>1360</v>
+      </c>
+      <c r="G34" t="n">
+        <v>95</v>
+      </c>
+      <c r="H34" t="n">
+        <v>42.95</v>
+      </c>
+      <c r="I34" t="n">
         <v>1</v>
       </c>
-      <c r="G34" t="n">
+      <c r="J34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1314,9 +1622,18 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
+        <v>1265</v>
+      </c>
+      <c r="G35" t="n">
+        <v>78</v>
+      </c>
+      <c r="H35" t="n">
+        <v>48.65</v>
+      </c>
+      <c r="I35" t="n">
         <v>1</v>
       </c>
-      <c r="G35" t="n">
+      <c r="J35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1339,9 +1656,18 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>808</v>
       </c>
       <c r="G36" t="n">
+        <v>42</v>
+      </c>
+      <c r="H36" t="n">
+        <v>57.71</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1364,9 +1690,18 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>888</v>
       </c>
       <c r="G37" t="n">
+        <v>51</v>
+      </c>
+      <c r="H37" t="n">
+        <v>52.24</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1394,6 +1729,13 @@
       <c r="G38" t="n">
         <v>0</v>
       </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1414,9 +1756,18 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>929</v>
       </c>
       <c r="G39" t="n">
+        <v>72</v>
+      </c>
+      <c r="H39" t="n">
+        <v>38.71</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1439,9 +1790,18 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>779</v>
       </c>
       <c r="G40" t="n">
+        <v>42</v>
+      </c>
+      <c r="H40" t="n">
+        <v>55.64</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1464,9 +1824,18 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>976</v>
       </c>
       <c r="G41" t="n">
+        <v>69</v>
+      </c>
+      <c r="H41" t="n">
+        <v>42.43</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1489,9 +1858,18 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>858</v>
       </c>
       <c r="G42" t="n">
+        <v>60</v>
+      </c>
+      <c r="H42" t="n">
+        <v>42.9</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1519,6 +1897,13 @@
       <c r="G43" t="n">
         <v>0</v>
       </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1539,9 +1924,18 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>924</v>
       </c>
       <c r="G44" t="n">
+        <v>54</v>
+      </c>
+      <c r="H44" t="n">
+        <v>51.33</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1564,9 +1958,18 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>789</v>
       </c>
       <c r="G45" t="n">
+        <v>51</v>
+      </c>
+      <c r="H45" t="n">
+        <v>46.41</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
         <v>0</v>
       </c>
     </row>
